--- a/biology/Biochimie/Lécithinase/Lécithinase.xlsx
+++ b/biology/Biochimie/Lécithinase/Lécithinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9cithinase</t>
+          <t>Lécithinase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les lécithinases sont des hydrolases (EC 3) qui hydrolysent la lécithine.
 On regroupe dans le terme de lécithinase 4 enzymes différentes :
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9cithinase</t>
+          <t>Lécithinase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Zoologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette enzyme est présente dans le venin de certains animaux, tels que l'abeille ou la guêpe (voir ce lien externe).
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9cithinase</t>
+          <t>Lécithinase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Application en bactériologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La recherche de lécithinases en bactériologie consiste en l'ensemencement d'une gélose au jaune d'œuf. Cela se traduit par l'aspect suivant des colonies :
 Zones opaques dans le halo transparent, la lécithine du jaune d'œuf a été dégradée, la bactérie possède une lécithinase. (ex: Clostridium perfringens)
